--- a/analisis_trading.xlsx
+++ b/analisis_trading.xlsx
@@ -18,6 +18,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
+    <t xml:space="preserve">Pregunta </t>
+  </si>
+  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -27,7 +30,7 @@
     <t>Elemento observado</t>
   </si>
   <si>
-    <t>Pregunta o Chequeo</t>
+    <t>¿Se identificó un patrón de velas de cambio de tendencia?</t>
   </si>
   <si>
     <t>Técnico</t>
@@ -39,7 +42,7 @@
     <t>Patrón de reversión bajista</t>
   </si>
   <si>
-    <t>¿Se identificó un patrón de velas de cambio de tendencia?</t>
+    <t>¿Se está operando cerca de una resistencia relevante?</t>
   </si>
   <si>
     <t>Soporte y Resistencia</t>
@@ -48,7 +51,7 @@
     <t>Zona de resistencia previa</t>
   </si>
   <si>
-    <t>¿Se está operando cerca de una resistencia relevante?</t>
+    <t>¿El precio reacciona en niveles clave de Fibonacci como 0.618 o 1.618?</t>
   </si>
   <si>
     <t>Fibonacci</t>
@@ -57,7 +60,7 @@
     <t>Retrocesos y extensiones de Fibonacci</t>
   </si>
   <si>
-    <t>¿El precio reacciona en niveles clave de Fibonacci como 0.618 o 1.618?</t>
+    <t>¿Hay cruce bajista de medias móviles como señal de venta?</t>
   </si>
   <si>
     <t>Medias Móviles</t>
@@ -66,7 +69,7 @@
     <t>Cruce de medias móviles</t>
   </si>
   <si>
-    <t>¿Hay cruce bajista de medias móviles como señal de venta?</t>
+    <t>¿El MACD indica una entrada o salida clara?</t>
   </si>
   <si>
     <t>Indicadores</t>
@@ -75,7 +78,7 @@
     <t>MACD cruzando a la baja</t>
   </si>
   <si>
-    <t>¿El MACD indica una entrada o salida clara?</t>
+    <t>¿Estoy actuando por miedo a perderme la operación o con criterio?</t>
   </si>
   <si>
     <t>Psicológico</t>
@@ -87,7 +90,7 @@
     <t>Operación posterior a señal de venta</t>
   </si>
   <si>
-    <t>¿Estoy actuando por miedo a perderme la operación o con criterio?</t>
+    <t>¿Estoy siguiendo las reglas del sistema sin anticiparme?</t>
   </si>
   <si>
     <t>Disciplina</t>
@@ -96,7 +99,7 @@
     <t>Respeto del sistema de señales</t>
   </si>
   <si>
-    <t>¿Estoy siguiendo las reglas del sistema sin anticiparme?</t>
+    <t>¿Estoy viendo solo lo que quiero ver o lo que realmente muestra el gráfico?</t>
   </si>
   <si>
     <t>Sesgo de Confirmación</t>
@@ -105,7 +108,7 @@
     <t>Validación con múltiples herramientas</t>
   </si>
   <si>
-    <t>¿Estoy viendo solo lo que quiero ver o lo que realmente muestra el gráfico?</t>
+    <t>¿Está el MACD alineado con la dirección de la operación?</t>
   </si>
   <si>
     <t>Herramienta</t>
@@ -117,28 +120,25 @@
     <t>MACD</t>
   </si>
   <si>
-    <t>¿Está el MACD alineado con la dirección de la operación?</t>
+    <t>¿La EMA está funcionando como soporte o resistencia dinámica?</t>
   </si>
   <si>
     <t>Medias Móviles (EMA)</t>
   </si>
   <si>
-    <t>¿La EMA está funcionando como soporte o resistencia dinámica?</t>
+    <t>¿Los niveles de Fibonacci coinciden con zonas de interés?</t>
   </si>
   <si>
     <t>Dibujo</t>
   </si>
   <si>
-    <t>¿Los niveles de Fibonacci coinciden con zonas de interés?</t>
+    <t>¿Están bien marcadas las zonas clave del precio?</t>
   </si>
   <si>
     <t>Zona</t>
   </si>
   <si>
     <t>Rectángulos de soporte/resistencia</t>
-  </si>
-  <si>
-    <t>¿Están bien marcadas las zonas clave del precio?</t>
   </si>
 </sst>
 </file>
@@ -192,9 +192,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
@@ -416,10 +419,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.57"/>
-    <col customWidth="1" min="2" max="2" width="26.57"/>
-    <col customWidth="1" min="3" max="3" width="33.57"/>
-    <col customWidth="1" min="4" max="4" width="34.43"/>
+    <col customWidth="1" min="1" max="1" width="59.43"/>
+    <col customWidth="1" min="2" max="2" width="17.57"/>
+    <col customWidth="1" min="3" max="3" width="26.57"/>
+    <col customWidth="1" min="4" max="4" width="33.57"/>
     <col customWidth="1" min="5" max="26" width="8.71"/>
   </cols>
   <sheetData>
@@ -427,181 +430,181 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/analisis_trading.xlsx
+++ b/analisis_trading.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
-    <t xml:space="preserve">Pregunta </t>
+    <t>Pregunta</t>
   </si>
   <si>
     <t>Tipo</t>
